--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_mixedbread-ai_mxbai-embed-large-v1_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_mixedbread-ai_mxbai-embed-large-v1_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -478,17 +478,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the provided context, long non-coding RNAs (lncRNAs) are generally spliced, but with some key differences compared to protein-coding genes:
-1. Most lncRNAs are spliced (98% according to the context).
-2. However, lncRNAs tend to have fewer exons than protein-coding genes. 42% of lncRNA transcripts have only two exons, compared to 6% of protein-coding genes.
-3. LncRNA exons are slightly longer than protein-coding exons on average.
-4. LncRNA introns are longer than protein-coding introns on average.
-5. Over 25% of lncRNA genes show evidence of alternative splicing, with multiple transcript isoforms.
-6. The vast majority of lncRNA introns are flanked by canonical splice sites (GT/AG), similar to protein-coding genes.
-7. Some lncRNAs, like AIRN and KCNQ1OT1, are reported to remain predominantly unspliced.
-8. Analysis of splicing dynamics suggests lncRNAs are often spliced later than mRNAs and sometimes might not be spliced at all.
-9. LncRNAs show lower splicing completion than mRNAs in chromatin and nuclear fractions.
-In summary, while most lncRNAs undergo splicing, they tend to have simpler splicing patterns than protein-coding genes and may be spliced less efficiently or later in the RNA processing pathway. Some lncRNAs can remain unspliced.</t>
+          <t>Based on the context provided, long non-coding RNAs (lncRNAs) are generally spliced, but with some key differences compared to protein-coding genes:
+1. Most lncRNAs are spliced (98%), but they tend to have fewer exons than protein-coding genes. 42% of lncRNA transcripts have only two exons, compared to 6% of protein-coding genes.
+2. LncRNA exons are slightly longer than protein-coding exons on average (149 bp vs 132 bp).
+3. LncRNA introns are longer than protein-coding introns on average (2280 bp vs 1602 bp).
+4. Over 25% of lncRNA genes show evidence of alternative splicing, with at least two different transcript isoforms.
+5. The vast majority of lncRNA introns are flanked by canonical splice sites (GT/AG), similar to protein-coding genes.
+6. However, lncRNAs show lower splicing completion rates compared to mRNAs in chromatin-associated and nuclear fractions, suggesting they are often spliced later or sometimes not spliced at all.
+7. Some well-known lncRNAs like AIRN and KCNQ1OT1 remain predominantly unspliced.
+In summary, while most lncRNAs undergo splicing, they tend to have simpler splicing patterns than mRNAs (fewer exons) and may be spliced less efficiently or later in the RNA processing pathway. Some lncRNAs can remain unspliced.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,9 +518,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the context provided, yes, Denosumab (brand name Xgeva) has been approved by the FDA for the prevention of skeletal-related events in men with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
+          <t>Based on the information provided in the context, yes, Denosumab has been approved by the FDA for use in men with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
 "The FDA approved in November 2010 denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
-SREs refers to skeletal-related events. So Denosumab received FDA approval in 2010 for this specific indication in men with metastatic CRPC and bone metastases.</t>
+SREs refers to skeletal-related events. So Denosumab (brand name Xgeva) was approved by the FDA in 2010 for preventing bone complications in men with metastatic CRPC that has spread to the bones.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -557,11 +555,11 @@
           <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with a complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
 1. The context states that HSCR "has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
 2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR in a "multifactorial nature."
-3. The study analyzes the "synergistic effect" and interactions between rare and common RET variants, indicating multiple genetic factors are involved.
-4. HSCR is described as having "differential contributions of its rare and common, coding and noncoding mutations."
-5. The disease has variable expressivity and incomplete penetrance, as evidenced by the sex-dependent penetrance mentioned.
-6. Environmental factors likely play a role, as not all cases are familial (only up to 20% are described as familial).
-So while there are major genes like RET associated with HSCR, the overall evidence points to HSCR being a complex multifactorial disorder involving multiple genetic and likely environmental factors, rather than following simple Mendelian inheritance patterns. The interplay between different types of genetic variants further supports its multifactorial nature.</t>
+3. The study analyzed both RET rare variants and common variants, indicating multiple genetic factors are involved.
+4. It states there is "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
+5. The disease shows variable expressivity and incomplete penetrance, with sex-dependent penetrance mentioned.
+6. Environmental factors may also play a role, as evidenced by the sporadic occurrence in most cases.
+So while certain genes like RET play a major role, HSCR appears to result from a combination of multiple genetic and potentially environmental factors, fitting the profile of a complex multifactorial disorder rather than a single-gene Mendelian condition. The interplay between rare and common variants further supports its multifactorial nature.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,12 +591,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, yes, RANKL is secreted from the cells. Specifically:
+          <t>Based on the context provided, yes, RANKL is secreted from the cells. Specifically:
 1. The study measured RANKL levels in the culture medium of osteoblasts using ELISA, indicating RANKL is secreted into the medium.
-2. Table II shows RANKL levels detected by ELISA in the culture medium of osteoblasts in both single-culture and co-culture conditions. 
-3. The results show that RANKL levels in the co-culture medium (5471.2 pg/ml) were significantly higher than in the single-culture medium (1439.7 pg/ml).
-4. The study discusses the "RANKL/OPG ratio secreted by co-cultured osteoblasts" being increased compared to single-cultured osteoblasts.
-So the context clearly indicates that RANKL is secreted by the osteoblast cells into the culture medium, where it can be detected and measured. The secretion of RANKL allows it to act as a signaling molecule in the bone microenvironment.</t>
+2. Table II shows RANKL levels detected in the culture medium of osteoblasts in both single-culture and co-culture conditions. 
+3. The text states: "An increased RANKL/OPG ratio secreted by co-cultured osteoblasts compared with single-cultured was identified by ELISA analysis of cell culture medium (Table II)."
+So the study directly measured secreted RANKL in the cell culture medium, demonstrating that RANKL is indeed secreted from the osteoblast cells. The ability to detect RANKL in the medium indicates it is released/secreted by the cells.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -630,19 +627,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the provided context, there is evidence that trastuzumab (Herceptin) may have potential therapeutic use against prostate cancer, particularly when labeled with the alpha-particle emitter lead-212 (212Pb):
+          <t>Based on the context provided, there is evidence that trastuzumab (Herceptin) may have potential use in treating prostate cancer, particularly when radiolabeled with alpha-emitting isotopes like lead-212:
 Key points:
 1. HER2, the target of trastuzumab, is overexpressed in 20-30% of prostate cancers and up to 78% of androgen-independent prostate cancers. 
-2. Increased HER2 expression correlates with more aggressive prostate cancer behavior and progression to androgen independence.
-3. In preclinical studies, 212Pb-labeled trastuzumab showed significant therapeutic effects against human prostate cancer xenografts in mice:
-- Reduced tumor growth by 60-80%
-- Reduced lymph node metastasis 
-- Prolonged survival of tumor-bearing mice
-- Did not cause significant systemic toxicity
-4. The therapy was effective even against prostate cancer cells expressing relatively low levels of HER2.
-5. The authors conclude that 212Pb-trastuzumab "could be an effective modality for management of advanced human prostate cancer."
-However, other studies cited showed limited efficacy of trastuzumab alone against prostate cancer in clinical trials. The radioimmunotherapy approach with 212Pb-trastuzumab appears more promising than trastuzumab alone based on this preclinical data.
-In summary, while trastuzumab alone may have limited efficacy, 212Pb-labeled trastuzumab shows potential as a novel targeted radiotherapy approach for advanced prostate cancer that warrants further investigation. The ability to target even low HER2-expressing tumors is particularly notable.</t>
+2. HER2 overexpression is associated with more aggressive prostate cancer and poorer prognosis.
+3. In preclinical studies, 212Pb-trastuzumab showed significant therapeutic effects against prostate cancer xenografts:
+   - Reduced tumor growth by 60-80%
+   - Reduced lymph node metastasis 
+   - Prolonged survival of tumor-bearing mice
+   - Did not cause significant systemic toxicity
+4. The authors conclude that "212Pb-trastuzumab could be an effective modality for therapy against advanced human prostate cancer."
+5. However, studies with trastuzumab alone (without radiolabeling) showed limited therapeutic responses in prostate cancer models and clinical trials.
+In summary, while trastuzumab alone may have limited efficacy, radiolabeled versions like 212Pb-trastuzumab show promise as a potential treatment for advanced prostate cancer in preclinical studies. Further clinical investigation would be needed to determine its efficacy in patients.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -682,7 +678,7 @@
 5. Amphiregulin (AR)
 6. Epiregulin (EPR)
 7. Epigen (EPG)
-The passage states that these seven ligands are known to bind to EGFR, with binding affinities ranging from sub-nanomolar to near micromolar dissociation constants. They are generally classified into high affinity ligands (EGF, TGF-α, HB-EGF, and BTC) and low affinity ligands (AR, EPR, and EPG).</t>
+The passage states that these seven ligands are known to bind to EGFR, with binding affinities ranging from sub-nanomolar to near micromolar dissociation constants. They are all members of the EGF family of growth factors and share a common EGF-like structural motif.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -719,7 +715,7 @@
 - It states orteronel is "an investigational, oral, nonsteroidal, selective, reversible inhibitor of 17,20-lyase, a key enzyme in the production of androgenic hormones."
 - The study enrolled men with "progressive, chemotherapy-naïve, metastatic castration-resistant prostate cancer".
 - The efficacy endpoints included measuring prostate-specific antigen (PSA) levels and PSA response rates, which are used to monitor prostate cancer.
-So orteronel was being developed and studied as a potential treatment for castration-resistant prostate cancer.</t>
+So orteronel was being developed and evaluated as a potential treatment for castration-resistant prostate cancer.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -753,11 +749,11 @@
         <is>
           <t>Based on the information provided in the context, Pannexin1 (Panx1) is primarily localized to the plasma membrane. Specifically:
 1. The text states that "Panx1 is fully N-glycosylated and transported to the cell membrane".
-2. It mentions that Panx1 "forms an ATP release channel" and interacts with receptors "as part of an ATP signaling pathway", indicating a plasma membrane localization.
-3. Figure 3A shows that mouse Panx1 (mPanx1) and zebrafish Panx1 isoforms (drPanx1a and drPanx1b) were "localized in the plasma membrane 48 h post transfection". 
-4. It states that "drPanx1a was mainly found in the cell membrane".
-5. The text notes that the distributions observed by confocal imaging "are consistent with previous reports demonstrating a plasma membrane expression for Panx1".
-So in summary, multiple lines of evidence in this context indicate that Pannexin1 is predominantly localized to the plasma membrane in cells.</t>
+2. Figure 3A shows that mouse Panx1 (mPanx1) and zebrafish Panx1 isoforms (drPanx1a and drPanx1b) were "localized in the plasma membrane 48 h post transfection".
+3. It mentions that "drPanx1a was mainly found in the cell membrane".
+4. The distribution of Panx1 constructs by confocal imaging is described as "consistent with previous reports demonstrating a plasma membrane expression for Panx1".
+5. Panx1 is described as forming "unopposed membrane channels" in the plasma membrane.
+So in summary, the evidence consistently indicates that Pannexin1 is primarily localized to and functions at the plasma membrane of cells.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -791,9 +787,13 @@
         <is>
           <t>Based on the context provided, the main acetylcholinesterase inhibitor used for treatment of myasthenia gravis is:
 Pyridostigmine bromide
-The passage states:
-"Pyridostigmine bromide is the most commonly used drug. Other acetylcholinesterase inhibitors such as neostigmine are rarely used because of their poorer pharmacodynamic profiles and tolerability."
-It also mentions that neostigmine is sometimes used but is less preferred compared to pyridostigmine. The passage indicates that pyridostigmine is considered the first-line symptomatic treatment option for myasthenia gravis among acetylcholinesterase inhibitors.</t>
+The passage states that "Pyridostigmine bromide is the most commonly used drug" for symptomatic treatment of myasthenia gravis. 
+It also mentions that other acetylcholinesterase inhibitors like neostigmine are rarely used due to poorer pharmacodynamic profiles and tolerability compared to pyridostigmine.
+So in summary:
+- Pyridostigmine bromide is the primary acetylcholinesterase inhibitor used
+- Neostigmine is sometimes used but much less commonly than pyridostigmine
+- Other acetylcholinesterase inhibitors are not specifically named but are implied to be rarely used
+The passage focuses on pyridostigmine as the main acetylcholinesterase inhibitor treatment for myasthenia gravis.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -825,12 +825,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Based on the context provided, the Yamanaka factors are:
-1. Oct3/4
-2. Sox2  
-3. Klf4
-4. c-Myc
-The passage states that these four factors are "highly expressed in embryonic stem (ES) cells, and their over-expression can induce pluripotency in both mouse and human somatic cells". They are referred to as the "Yamanaka factors" throughout the text.</t>
+          <t>Based on the given context, I don't have any information about Yamanaka factors. The provided text does not mention Yamanaka factors or anything related to them. The context appears to be about clinical trial results for a drug called orteronel, including adverse events, pharmacokinetics, and pharmacodynamics data. I don't have enough relevant information to answer the question about Yamanaka factors.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -840,12 +835,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['10.1038_cr.2008.309.pdf', '10.1038_cr.2008.309.pdf', '10.1038_cr.2008.309.pdf', '10.1038_cr.2008.309.pdf', '10.1038_cr.2008.309.pdf']</t>
+          <t>['10.3892_or.2011.1482.pdf', '10.1038_srep04576.pdf', '10.1101_gr.134445.111.pdf', '10.1186_1471-2350-12-138.pdf', '10.1007_s00280-014-2654-y.pdf']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['www.cell-research.com | Cell ResearchXiaosong Liu  et al.\n1177npg\nORIGINAL ARTICLE\nYamanaka factors critically regulate the developmental \nsignaling network in mouse embryonic stem cells\nXiaosong Liu1, Jinyan Huang2, Taotao Chen1, Ying Wang1, Shunmei Xin1, Jian Li3, Gang Pei1, 2, Jiuhong Kang1\n1Laboratory of Molecular Cell Biology, Institute of Biochemistry and Cell Biology, Shanghai Institutes for Biological Sciences, \nChinese Academy of Sciences, Shanghai 200031, China; 2Department of Bioinformatics, School of Life Sciences and Technology, \nTongji University, Shanghai 200092, China; 3Agilent Technologies, Shanghai 200001, China\nCorrespondence: Jiuhong Kang\nTel: +86-21-54921373; Fax: +86-21-54921011E-mail: jhkang@sibs.ac.cnReceived 16 June 2008; revised 12 August 2008; accepted 1 September 2008; published online 25 November 2008npg\nYamanaka factors (Oct3/4, Sox2, Klf4, c-Myc) are highly expressed in embryonic stem (ES) cells, and their over-\nexpression can induce pluripotency in both mouse and human somatic cells, indicating that these factors regulate \nthe developmental signaling network necessary for ES cell pluripotency. However, systemic analysis of the signaling pathways regulated by Yamanaka factors has not yet been fully described. In this study, we identified the target promoters of endogenous Yamanaka factors on a whole genome scale using ChIP (chromatin immunoprecipitation)-on-chip in E14.1 mouse ES cells, and we found that these four factors co-occupied 58 promoters. Interestingly, when Oct4 and Sox2 were analyzed as core factors, Klf4 functioned to enhance the core factors for development regulation, whereas c-Myc seemed to play a distinct role in regulating metabolism. The pathway analysis revealed that Yamanaka factors collectively regulate a developmental signaling network composed of 16 developmental signaling pathways, nine of which represent earlier unknown pathways in ES cells, including apoptosis and cell-cycle pathways. We further analyzed data from a recent study examining Yamanaka factors in mouse ES cells. Interestingly, this analysis also revealed 16 developmental signaling pathways, of which 14 pathways overlap with the ones revealed by this study, despite that the target genes and the signaling pathways regulated by each individual Yamanaka factor differ significantly between these two datasets. We suggest that Yamanaka factors critically regulate a developmental signaling network composed of approximately a dozen crucial developmental signaling pathways to maintain the pluripotency of ES cells and probably also to induce pluripotent stem cells.\nKeywords: embryonic stem cell, pluripotency, Yamanaka factor, signal pathway, ChIP-on-chipCell Research (2008) 18:1177-1189. doi: 10.1038/cr.2008.309; published online  25 November 2008Cell Research (2008) 18:1177-1189.\n© 2008 IBCB, SIBS, CAS    All rights reserved 1001-0602/08  $ 30.00 www.nature.com/cr\nIntroduction\nEmbryonic stem (ES) cells are of great interest \nbecause of their capacity for unlimited self-renewal \nand multi-lineage differentiation in response to specific \nstimuli. With future research, these cells may serve as a \npotentially unrestricted source for tissue replacement in \nregenerative medicine. cDNA microarray analyses have revealed a long list of genes, whose transcript levels \nchanged significantly during ES cell differentiation [1, \n2]. Recent studies showed that these genes regulate the pluripotency and differentiation of ES cells, \nprimarily through effects on different developmental signaling pathways, including Notch, transforming growth factor b (TGF-b), Wingless/Wnt, and \nHedgehog \nsignaling pathways [3-7]. Even the “simplest” \ndevelopmental response to intra- and extracellular signaling is determined by a complex interplay between developmental signaling pathways, involving extensive \nfeedback regulation and multiple levels of cross-\ntalk [6]. However, the signaling network involved in', 'in several ways. First, typical peak positions resulting \nfrom ChIP signals indicated efficient ChIP enrichment for each transcription factor (Supplementary information, \nFigure S1). Second, well-known target genes of the \nYamanaka factors were found in our binding lists; the \ndifferent probe hits of each Yamanaka factor target gene \nand their relative position to the transcription start-site of the corresponding gene were shown in Supplementary \ninformation, Table S1. For example, the earlier-identified \nOct4 targets, including POU5F1, SOX2, FBXO15, ZIC3, \nGJA1, SALL4, CDX2, GDF3, DPP A3, UTF1, and FZD5 \n[17-28], were all included in our list of genes occupied by Oct4 (Supplementary information, Table S1). Third, \nwe have also validated several of the predicted target \nloci of the Yamanaka factors by ChIP-PCR assays using primer sets containing or adjacent to the positive probes, \nand all tested target loci were significantly enriched over \nthe negative controls (Supplementary information, Figure \nS2).\nThe number of target genes for c-Myc, Klf4, Oct4, \nand Sox2 was 3 869, 1 505, 904, and 864, respectively (Figure 1A). The distance between each target site \nand the corresponding TSS was analyzed for each \nindividual Yamanaka factor, and the vast majority of \ntarget sites specifically enriched to the proximity of TSS \n(approximately ±2 kb from TSS) ( Figure 1B ). A recent \nBioChIP-on-chip analysis of ectopically expressed \nc-Myc, Klf4, Oct4, and Sox2 in J1 cells revealed that 3 \n582, 1 790, 783, and 819 genes were occupied by these \nfactors, respectively [15]. Between these two datasets, \nthe overlapping targets for c-Myc, Klf4, Oct4, and Sox2 were 2 030, 380, 149, and 133, respectively, indicating \nthat our present ChIP-on-chip dataset using endogenous \nfactors represents a distinct and useful resource for studying target genes of Yamanaka factors and their \npotential biological roles in ES cells.\nFurther analysis showed that 1 389, 306, and 58 \ngenes were co-occupied by at least 2, 3, or 4 Yamanaka factors, respectively ( Figure 1C ). Similar results were \nobtained when we analyzed the BioChIP-on-chip \ndata (Supplementary information, Figure S3) [15]. \nwww.cell-research.com | Cell ResearchXiaosong Liu  et al.\n1179npg\nFurthermore, as revealed by supervised clustering [29] \nand gene set enrichment analysis (GSEA) [30], binding \nof Yamanaka factors with specific gene promoters \nthrough differential combinations was one of the \nmechanisms for the binding factors to accurately regulate \nspatiotemporal expression of the target genes ( Figure \n2). Specifically, the target genes of c-Myc were largely \nactivated whenever occupied by c-Myc alone or in \ncombination with other Yamanaka factors ( Figure 2A \nand 2B ). However, although genes co-occupied by two \nor more Yamanaka factors with or without c-Myc were \nactivated (bars a, b in Figure 2A, 2C, and 2D ), genes \noccupied by only one of the non-c-Myc factors (Oct4, \nSox2, or Klf4) were largely repressed (bar c in Figure \n2A, 2B, and 2D).\nFunctional analysis of cell signaling regulated by \nYamanaka factors\nTo gain insight into the cell-signaling pathways \nregulated by Yamanaka factors in mouse ES cells, we \nutilized the PANTHER (Protein ANalysis THrough \nEvolutionary Relationships, http://www.pantherdb.org/) \nClassification System to functionally classify the gene \ntargets of Yamanaka factors. Compared with the expected \nenrichment, target genes of Yamanaka factors were \nenriched to a similar extent in the cell-cycle processes, \nwhere 273, 102, 68, and 56 of c-Myc, Klf4, Oct4, and \nSox2 targets were respectively enriched. In contrast, \nthe target genes of Oct4, Sox2, and Klf4 (410, 229, and \n626) were significantly enriched in the development and mRNA transcription processes, whereas the targets of \nc-Myc (706) were mainly enriched in the metabolism \nprocesses (Figure 3A and 3B).\nTo understand the role of the core factors Oct4 and \nSox2 in ES cells, the target genes of Oct4 and Sox2', 'and Klf4   and Oct4  and Sox2  and Klf4    and Klf4   and Oct4  Oct4 and   common\n                    only         only          only       and Oct4  and Sox2  and Sox2    Sox2\n   c-Myc      c-Myc      c-Myc       c-Myc       c-Myc      c-Myc       c-Myc      Klf4 and   4 factors\n                 and Klf4   and Oct4  and Sox2  and Klf4    and Klf4   and Oct4  Oct4 and   common\n                    only         only          only       and Oct4  and Sox2  and Sox2    Sox2mRNA transcription\n404/287  67/40  14/11  \n12/14  38/11  \n29/10.5  28/7.5  28/6\n17/4\n23/12\n19/1120/817/6.5\n9/4.5\n17/11.5\n12/1451/42326/301\n706/481\n93/67 25/18 33/2323/18\n16/19\n8/13\n4/10.3273/127  40/17.5\n10/4.816/615/5\n11/4.511/3.3\n7/2.7 5/1.9\n3/73.0\n2.5\n2.0\n1.5\n1.0\n0.5\n0\n1.6\n1.4\n1.2\n1.0\n0.8\n0.6\n0.4\n0.2\n05.0\n4.5\n4.0\n3.5\n3.0\n2.5\n2.0\n1.5\n1.0\n0.5\n0\n3.5\n3.0\n2.5\n2.0\n1.5\n1.0\n0.5\n0Relative enrichment Relative enrichment\nRelative enrichmentRelative enrichment\nYamanaka factors regulate developmental signaling network\n1184npg\n Cell Research | Vol 18 No 12 | December 2008 by the core factors Oct4 and Sox2 (Figure 4A  and \nSupplementary information, Figure S7). Furthermore, the \ndevelopmental signaling pathways collectively regulated \nby the four Yamanaka factors overlapped significantly \nbetween these two studies, with 14 out of 16 pathways in \ncommon (Supplementary information, Table S3). These \nresults indicate that both sets of data are of high quality \nand will be useful for ES cell and iPS cell study, whereas \nChIP-on-chip data-based signaling network analysis is \na powerful tool in revealing the fundamental features of \nES cells.\nDespite that the two studies revealed similar signaling \nnetworks regulated by the Yamanaka factors, there were \nalso obvious differences. Between these two datasets, \nthe overlapping targets of c-Myc, Klf4, Oct4, and \nSox2 were only 2 030, 380, 149, and 133, respectively. \nThe developmental signaling pathways regulated by \nindividual Yamanaka factors were also different in the two datasets (Supplementary information, Table S5). \nThe use of different ES cell lines [1, 2] and the different \nexperimental processes in these two studies (ChIP-on-\nchip analyses of endogenous Yamanaka factors in our \nstudy versus BioChIP-on-chip analyses of ectopically \nexpressed Yamanaka factors in the study by Kim et al.) \nlikely account for the differences in the results. The \nBioChiP-on-chip experiment was performed in different \nbio-factor-transfected J1 cells. Furthermore, only 48% \nand 62% of endogenous Nanog- and c-Myc-binding \ntargets could be enriched in J1 cells by the bio-Nanog \nand bio-c-Myc ChIP experiment [15]. Our analyses \nshowed that exogenous Yamanaka factors significantly \nenriched 4 846 target genes and regulated 117 KEGG \npathways, whereas endogenous Yamanaka factors \nenriched more target genes (5 389) but regulated fewer \npathways (96) (Supplementary information, Table S6). \nThese results thus indicate that our ChIP-on-chip data \nFigure 6  Developmental signaling network regulated by endogenous Yamanaka factors. (A) Pathway classification \nfor the target genes of each endogenous Yamanaka factor using KOBAS. All enriched pathways are categorized into \ndevelopmental signaling, cancers, metabolism, and others. The numbers in the figure represent the number of signaling \npathways regulated by each of the Yamanaka factors. (B) The signaling regulatory network of endogenous Yamanaka \nfactors shows autoregulation, interconnectivity, and feed-forward regulation. Regulation of each Yamanaka factor on the \nknown pluripotency-associated pathways is also shown (pink: Yamanaka factors; yellow: the activated known pluripotency-\nassociated pathways; green: the repressed known pluripotency-associated pathways). (C) Endogenous Yamanaka factors \nregulated other developmental signaling pathways, whose association with ES cell pluripotency is not yet established. The', 'in mouse ES cells. It is noticed that although a large \nnumber of Yamanaka factor target genes (Oct4: 6 851, \nSox2: 6 754, Klf4: 6 998, c-Myc: 8 047) were listed in \nthat study, only about 50% of the Yamanaka factor targets identified by the promoter binding data from Kim et al. \n[15] and our study could be found in that list, suggesting that the cut-off standard used in the Chen et al. study may be too strict. However, when the Chen et al. [66] data \nwere analyzed for developmental signaling pathways regulated by the Yamanaka factors, 13 pathways were \nfound to overlap with those identified by the data of \nKim et al. and our study (data not shown). These results \nindicate that our findings on the developmental signaling \nnetwork regulated by the Yamanaka factors will prove \nuseful in the future to elucidate the molecular nature of \npluripotency, self-renewal, and reprogramming.\nIn summary, on the basis of the ChIP-on-chip data of \nendogenous Yamanaka factors in mouse ES cells and follow-up signaling pathway analyses, our study not only \nprovides a novel insight into the developmental signaling network collectively regulated by the Yamanaka factors, \nbut also reveals the distinct effect of each individual \nYamanaka factor. As mentioned above, the signaling \npathways revealed from these data may represent a \nfundamental feature and a basic signaling network required for ES cell pluripotency and iPS cell generation. \nAs the key nodes of these identified pathways are well \nstudied, our study may provide insight into how ES cell pluripotency and iPS cell induction may be controlled \nthrough agonists or antagonists of specific signaling \npathways. Given that virus-mediated iPS cell generation \nis likely to induce genetic alterations and cancer [67], \ngeneration of iPS cells with signaling pathway agonists \nand/or antagonists would greatly reduce the tumorigenic \nrisk of the iPS cell technology and could, therefore, \ncontribute to developing and applying patient-specific \niPS cells in regenerative medicine.\nMaterials and Methods\nCells and cell culture\nMurine ES cells E14.1 were cultured without feeder cells \n(irradiated murine embryonic fibroblasts, MEF) and grown under typical mES cell condition in Dulbecco’s modified Eagle medium \n(DMEM; GIBCO) supplemented with 15% heat-inactivated fetal bovine serum (FBS; GIBCO), 0.055 mM b-mercaptoethanol \n(GIBCO), 2 mM L-glutamine, 0.1 mM MEM non-essential amino acid and 1 000 U/ml leukemia inhibitory factor (LIF, Chemicon) [43]. All investigated E14.1 mES cells showed typical clone morphology and growth rate in undifferentiated status.\nAntibodies\nThe OCT4(sc-8628), SOX2(sc-17320), KLF4(sc-20691), and \nc-MYC(sc-764) antibodies used in the ChIP step were purchased from Santa Cruz Biotechnology, which have been used in many \nearlier ChIP and ChIP-on-chip studies and have been shown to \nrecognize the responsive genes [20, 42, 68-73].\nChromatin immunoprecipitation and hybridization\nThe standard Agilent mammalian ChIP-on-chip protocol 9.1 is \navailable online (http://www.chem.agilent.com/scripts/generic.asp?lpage=11617&amp;indcol=N&amp;prodcol=Y). In brief, E14.1 murine \nES cells were grown to a final count of 1 × 10\n8 cells for each \nChIP-on-chip analysis. The cells were harvested with diastase \nand chemically crosslinked in 50 ml 0.5% formaldehyde for 20 min at \nroom temperature. The cells were then rinsed twice with 50 ml 1 × \nPBS and stored at −80 °C before use. The cells were resuspended \nand lysed in lysis buffers and then sonicated to shear the \ncrosslinked DNA to an average length of 500 bp. As the sonication conditions vary mainly depending on cell line, cell number, degree of crosslinking, and equipment, we used a Bioruptor \nsonicator (Diagenode) and sonicated the 1 × 10\n8 E14.1 cells with \nan intensity set at high for a 26 × 15 s pulse (30-s pause between \npulses) at 4 °C while the samples were kept immersed in an ice-\nwater bath. Fifty microliters of the sonicated lysate was saved for', 'regulated other developmental signaling pathways, whose association with ES cell pluripotency is not yet established. The \ndashed arrows show the potential association with ES cell pluripotency (yellow: the activated known pluripotency-associated \npathways; green: the repressed known pluripotency-associated pathways).\nA \n10           12             13        5 9            12            13        5 6              7             17         2 9          13             14      11\nB Development\nsignalingDevelopment\nsignalingDevelopment\nsignaling\nDevelopment\nsignalingMetabolismMetabolismMetabolism\nMetabolismOthersOthersOthers\nOthers\nKlf4 Sox2 \nOct3/4\nNotch         MAPK        Jak-stat                           Wnt            p53       c-MycCytokine cytokine receptor interaction\nAxon guidance ErbB signaling pathway\nDorso ventral axis formationAdherens junction\nCell cycleES cell pluripotencyFocal adhesion\nGap junction\nApoptosis\nCancersCancersCancers\nCancersOct4                                             Sox2                                            Klf4                                             c-Myc\nC \nHedge-\nhogTGF-b\nwww.cell-research.com | Cell ResearchXiaosong Liu  et al.\n1185npg\nusing endogenous Yamanaka factors will be a highly \nvaluable resource for future studies on the mechanisms \nof ES cell pluripotency and iPS cell generation.\nThe consensus-binding motif utilized by endogenous \nYamanaka factors was analyzed by MEME [41] using \nall probes commonly bound by the four factors. We \nfound that the consensus motif of Yamanaka factors \n(P &lt; 2.93e−6) consisted of the identified Sox-Oct cis-\nelement (ATGC[A,T][A,T][A,G,C][A,T]) [20, 42, 43] , \nindicating a core regulatory role of Oct4 and Sox2 among the Yamanaka factors. Surprisingly, we found \nthat Klf4 and c-Myc showed very different effects on the \nfunctional signaling regulated by the core factors Oct4 \nand Sox2. Klf4 enhanced the role of Oct4 and Sox2 in regulating developmental pathways, whereas c-Myc \nclearly did not. Although somewhat unexpected, these \nresults are consistent with the recent study showing that pluripotency was induced in both mouse and human \nfibroblasts by Yamanaka factors without c-Myc [10].\nAmong the well-described ES cell pluripotency \nsignaling pathways regulated by Yamanaka factors, \nHedgehog, BMP/TGF- b, Wnt, and Notch pathways \nconstitute the stem-cell-signaling network. These \nsignaling pathways play key roles in a variety of processes, \nincluding cell fate determination during embryogenesis, \nself-renewal of ES cells, maintenance of adult tissue \nhomeostasis, tissue repair during chronic persistent \ninflammation, and carcinogenesis [26, 44, 45]. The JAK/\nSTAT pathway is important in mediating cell fates, \nincluding processes such as apoptosis, differentiation, \nand proliferation in response to growth-promoting factors \nand cytokines [46, 47]. MAPK/ERK signaling is active \nin undifferentiated human ES cells and is down-regulated \nupon differentiation [48]. These signaling pathways may \nthus constitute a complex signaling network actively maintaining ES cell pluripotency [49-59].\nInterestingly, in addition to the seven well-known ES \ncell pluripotency-related pathways, Yamanaka factors regulate nine other developmental signaling pathways \n(Supplementary information, Table S3). Although no literature suggests that these pathways are involved in \nES cell pluripotency, some of them, including those \nassociated with apoptosis and cell-cycle signaling, are \nobviously connected to ES cell pluripotency and iPS \ncell generation. Moreover, the reported functions of other signaling pathways suggest that these pathways \nmay also be involved in ES cell pluripotency and iPS \ncell generation. Indeed, adherens junctions (consisting of transmembrane cadherin molecules and their \nassociated cytoplasmic a-, b-, and γ-catenin proteins)']</t>
+          <t>['P-value  0.585 0.862\nGrade\n 1 45 0.35 (0.18-1.22) 0.69 (0.36-2.12)\n 2 28 0.54 (0.12-1.43) 0.73 (0.30-3.64)\n 3 4 1.62 (0.31-3.94) 1.23 (0.38-2.67)\n 4 1 5.03 6.56\n P-value  0.245 0.465\nResponseb\n CR 31 0.52 (0.2-1.28) 0.73 (0.38-1.52)\n PD 18 0.45 (0.17-1.82) 1.52 (0.29-3.00)\n P-value  0.959 0.694\naMedian of relative expression, with 25-75th percentile in paren -\nthesis; b49 patients were followed-up. CR, complete response; PD, \nprogressive disease.', 'srep04576 (2014).\nThis work is licensed under a Creative Commons Attribution-NonCommercial-\nShareAlike 3.0 Unported License. The images in this article are included in the\narticle’s Creative Commons license, unless indicated otherwise in the image credit;\nif the image is not included under the Creative Commons license, users will need to\nobtain permission from the license holder in order to reproduce the image. To view a\ncopy of this license, visit http://creativecommons.org/licenses/by-nc-sa/3.0/\nwww.nature.com/ scientificreports\nSCIENTIFIC REPORTS | 4 : 4576 | DOI: 10.1038/srep04576 9', 'four increasing subsets of variables and the entire model: model with distance to TSS and distance to polyA site (pos); model additionally including a cceptor\nstrength, donor strength, log-exon-length, log-upstream-intron-length, log-downstream-intron-length and exonic GC content ( +struc); model additionally\nincluding gene RPKMs from polyA +nuclear RNA ( +GE); model additionally including ChIP-seq related variables ( +chrom); model including all variables\n(entire). ( C) Coefficients in the entire model of distance to the TSS and to the polyA-site. ( D) Acceptor strength (accSc), donor strength (donSc), exonic GC\ncontent (GC), log-exon-length [lg(exLen)], log-upstream-intron-length [lg(upILen)], log-downstream-intron length [lg(doIlen)] and gene RPK Ms from\npolyA +nuclear RNA (GE). ( E) MNase and histone modification values as described in Figure S10.Tilgner et al.\n1622 Genome Research\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \nthough strictly speaking we cannot detect this commitment on the\npremessenger RNA, the contrasting behavior of snoRNAs and U3\nsnRNAs, compared with other spliceosomal snRNAs, is highlysuggestive. Indeed, it has been shown that the elongation rate can\naffect inclusion of exon E33 of the fibronectin gene without af-\nfecting the relative order in which introns are removed (de la Mata\net al. 2010). A corollary of this observation is that, in this case,commitment to inclusion can be achieved co-transcriptionally,while actual intron removal might occur later (de la Mata et al.\n2010). Hence transcription-mediated influences on splicing areprobably larger than can be detected with the data analyzed here.\nA variety of recent studies have linked chromatin structure to\nsplicing. Co-transcriptionality of splicing is not an absolute pre-\nrequisite for a chromatin-splicing connection, because chromatin\nFigure 6. (A) Clustering of subcellular RNA fractions and exons according to exonic coSI values using four RNA fractions. From lefttoright : total\nchromatin-associated RNA, polyA /C0nuclear RNA, polyA+ nuclear RNA, polyA +cytosolic RNA. Note that the scale is only linear from coSI $0.5 on. ( B)\nOverlap between exons with a tendency for post-transcriptional splicing (postTS) and entirely coding exons (CDS). ( C) Overlap between cell type\nspecifically included AS-exons and exons with a tendency for postTS. ( D) The distribution of coSI scores for various exon sets is shown, based on calcu-\nlations for chromatin total RNA. Information is plotted for the 4933 lncRNA exons and 372,306 protein-coding gene exons that have sufficient RNA-seq\nreads to calculate a confident coSI score. In addition, we extracted exon values for three known lncRNAs: H19 (18 exons), XIST (19 exons), U50HG-SNHG5\n(22 exons). The difference between lncRNA and protein exon coSI values is statistically significant (Wilcox test; P&lt;2.2310/C016). (E) Gene-level coSI scores\nfrom chromatin total RNA are plotted for 92 lncRNAs and 4066 protein-coding genes. The difference between the distributions is statistically significant(Wilcox test; P&lt;2.2310/C016). (F) Exon-level coSI scores from nuclear polyA +RNA are plotted for 206 lncRNA exons and 32,496 protein-coding exons. The\ndifference between the distributions is statistically significant (Wilcox test; P&lt;2310/C016).Widespread co-transcriptional splicing in humans\nGenome Research 1623\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \ncould influence commitment rather than actual intron removal\n(see above). In the light of our data, it seems, however, that the\nmajority of splicing occurs during transcription and thereby offers an\neven more direct opportunity for chromatin to influence splicing.\nIndeed, we detect enrichment of a variety of chromatin marks on\nexons in the process of being spliced (i.e., exons, with low coSI\nvalues in the chromatin-associated RNA).', 'mutational events related with HSCR: 1 chromosomaltranslocation (t(10:22)), 6 chromosomal 21 triplication\nand 4 mutations in other HSCR genes ( EDNRB ,GDNF ,\nandNTF3 ) [7,13,14].\nDiscussion\nPrevious genome-wide linka ge/association studies have\nidentified several modifier genes in different genomic\nregions, but RET i st h eo n l yg e n ek n o w nt op l a ya\nmajor role in all forms of HSCR susceptibility and aTable 1 RETgermline mutations identified in our series of HSCR patients\nPatient Exon/\nIntronNucleotide\nchangeAmino acid\nchangeParent origin of the\nmutationGender Length of aganglionic\nsegmentRef.\nHSCR 193 2 c.287A &gt; C p.Tyr96Ser Mother Female Not Available –\nHSCR 133 3 c.466 G &gt; T p.Ala156Ser De novo Female S-HSCR –\nHSCR 166 5 c.937 C &gt; T p.Arg313Trp Mother Male Not Available –\nHSCR\nV1355 c.988insC p.R330PfsX353 Mother Male S-HSCR –\nHSCR 223 5 c.1042 C &gt; T p.Arg348Trp Mother Male Not Available –\nHSCR 109 6 c.1118 C &gt; T p.Ala373Val Father Female S-HSCR [7]\nHSCR 217 6 c.1118 C &gt; T p.Ala373Val Mother Male S-HSCR [7]\nHSCR 220 6 c.1118 C &gt; T p.Ala373Val Mother Male S-HSCR [7]\nHSCR 99 7 c.1267G &gt; A p.Gly423Arg Mother Female S-HSCR –\nHSCR V67 7 c.1325T &gt; C p. Leu442Pro Mother Male Not Available –\nHSCR 187 8 c.1627 T &gt; A p.Trp543Arg De novo Female S-HSCR –\nHSCR 260 10 c.1859G &gt; A p.Cys620Tyr Father Male L-HSCR –\nHSCR V24 14 c.2459G &gt; A p. Arg820His De novo Male Not Available –\nHSCR 204 17 c.2858 C &gt; T p.Pro953Leu Mother Male S-HSCR –\nHSCR 278 18 c.2944 C &gt; T p.Arg982Cys Not Available Male S-HSCR [19]\nHSCR V22 18 c.2944 C &gt; T p.Arg982Cys Father Male Not Available [19]\nHSCR 15 18 c. 2975 C &gt; T p.Pro992Leu De novo Male L-HSCR –\nHSCR 151 19 c.3185 A &gt; G p.Tyr1062Cys Mother Female S-HSCR [20]\nHSCR 198 19 c.3185 A &gt; G p.Tyr1062Cys Father Male Not Available [20]\nHSCR 278 20 c*4delTCTTinsAAA NA Male S-HSCR –\nFigure 1 Schematic representation of RET protein . Mutations identified in this study are indicated in the corresponding functional domain.\nNovel and published mutations are presented in black and grey, respectively.Núñez-Torres et al .BMC Medical Genetics 2011, 12:138\nhttp://www.biomedcentral.com/1471-2350/12/138Page 4 of 7\nquantitative study of its allelic spectrum should provide\nclues on the role of both rare and common sequence\nvariants in the complex inheritance of HSCR, particu-\nlarly its relationships to factors that are correlated with\nrisk, such as gender.\nAfter our RET CDS mutational screening, we have\nfound that our whole series of Spanish HSCR patients\npresents a mutational frequency of 11.11% in sporadic\ncases and 18.75% in familial ones, which is concordant\nwith previous studies that report values of up to 50% in\nfamilial forms and 7-20% in sporadic cases [2].\nGenotyping analysis of RET common SNPs shows\nsimilar results to those previously described, confirming\nthereby the prominent role of either the intronic enhan-\ncer mutation (rs2435357, [3]) or the RET “risk haplo-\ntype ”[4,8] in the pathogenesis of sporadic HSCR.\nAs previously commented, one of the major features\nof HSCR, especially in the short-segment forms, is the\nsex-dependent penetrance and male predominance of\n4:1 [1]. Nevertheless the reason of this sex difference is\nstill unclear. It has been postulated that sex differences\ncould arise from mutations on the × chromosome, but\ngenome-wide mapping studies have failed to identify an\nX-linked gene with a relevant impact per se in HSCR.Previous studies have indeed demonstrated differences\nin the transmission frequency of the “enhancer muta-\ntion ”(rs2435357) depending on the offspring gender or\nparent gender [3,5]. For this reason, we sought to per-\nform an additional case-control study to analyze the dis-\ntribution of the RET variants based in gender. We found\na different allelic distribution between HSCR cases and\ncontrols in both, males and females, for rs2435357 and\nrs2505532. However and noteworthy, significant differ-\nences in HSCR versus controls in the male subset were', 'jects during the study, any Grade and Grade 3 or higher)\nAdverse events were coded using the MedDRA version 13.0\nA subject counts once for each preferred termPreferred  \ntermTAK-700 (orteronel)\n200 mg (N = 3) n (%) 300 mg (N = 3) n (%) 300 mg + predniso-lone (N = 3) n (%) 400 mg (N = 3) n (%) 400 mg + predniso-lone (N = 3) n (%) All subjects (N = 15) n (%)\nAny gradeGrade 3  or higherAny gradeGrade 3  or higherAny gradeGrade 3  or higherAny gradeGrade 3  or higherAny gradeGrade 3  or higherAny  gradeGrade 3 or higher\nAny adverse event\n Number of \nsubjects3 (100) 1 (33) 3 (100) 3 (100) 3 (100) 3 (100) 3 (100) 2 (67) 3 (100) 3 (100) 15 (100) 12 (80)\n Hyperlipa-\nsemia– – 3 (100) 3 (100) 3 (100) 2 (67) 1 (33) 1 (33) – – 7 (47) 6 (40)\n Hyperamyla-\nsemia– – 2 (67) 1 (33) 3 (100) 1 (33) 1 (33) 1 (33) – – 6 (40) 3 (20)\n Constipation – – – – 2 (67) – – – 3 (100) – 5 (33) –\n Dysgeusia – – – – 1 (33) – 3 (100) – – – 4 (27) –\n Hepatic \nfunction abnormal1 (33) – 1 (33) – – – 1 (33) – 1 (33) – 4 (27) –\n Hypertension 1 (33) – 1 (33) 1 (33) – – 2 (67) – – – 4 (27) 1 (7)\n Malaise – – – – 1 (33) – 2 (67) – 1 (33) – 4 (27) –\n Hypokalemia – – – – – – 3 (100) 1 (33) – – 3 (20) 1 (7)\n Nasopharyn-\ngitis1 (33) – – – – – – – 2 (67) – 3 (20) –\n Nausea – – 1 (33) – – – 1 (33) – 1 (33) – 3 (20) –\n Rash – – – – – – – – 3 (100) – 3 (20) –\n Abdominal \npain upper– – – – – – 1 (33) – 1 (33) – 2 (13) –\n Blood creatine \nphospho-kinase increased1 (33) – – – 1 (33) – – – – – 2 (13) –\n Contusion – – – – – – 1 (33) – 1 (33) – 2 (13) –\n Diabetes mel-\nlitus– – – – 1 (33) 1 (33) – – 1 (33) – 2 (13) 1 (7)\n Fall – – – – – – – – 2 (67) – 2 (13) –\n Insomnia 1 (33) – – – – – – – 1 (33) – 2 (13) –\n Pancreatitis \nacute– – – – – – 1 (33) – 1 (33) 1 (33) 2 (13) 1 (7)\n Pneumonia – – – – 1 (33) – – – 1 (33) 1 (33) 2 (13) 1 (7)\n V omiting – – – – – – 1 (33) – 1 (33) – 2 (13) –\n378 Cancer Chemother Pharmacol (2015) 75:373–380\n1 3\nsymptoms were manageable without dose reduction or \ndose hold of orteronel except for one Grade 3 hypokalemia. All patients who experienced these events were enrolled in prednisolone-free cohort. No TEAE associated with adre-nal insufficiency was reported in this study.\nNo Grade 3 or higher abnormalities were observed in \nhematologic test or urinalysis. No clinically significant abnormal 12-lead ECG and echocardiography findings were observed either in any patient or at any assessment point during the study.\nPK resultsThe maximum plasma concentration (C\nmax) of ortero-\nnel was observed at approximately 1–3 h after the morn-\ning dose on Day 8 of Cycle 1 in all cohorts (Table 4). The plasma concentrations of orteronel increased with the BID dosing in all cohorts and the cumulative ratios of area under the plasma concentration–time curve (AUC) on Day 8 ranged from 1.10 to 1.67. Dose-dependent increases in C\nmax and AUC of orteronel on Day 8 were indicated in the \ndose range of the 200 and 400 mg BID. Differences in the values of PK parameters between prednisolone-free and prednisolone coadministration were not clearly observed at orteronel doses of 300 and 400 mg BID. The time to achieve C\nmax (Tmax) of M-I on Day 8 was approximately \n3–8 h in all cohorts. AUC of M-I on Day 8 was approxi-mately 30–50 % of that of orteronel in each cohort. The fractional urinary excretion rates for 24 h after the morning dose on Day 15 ranged from 36 to 47 % of the dose for orteronel and from 14 to 21 % of the dose for M-I, indicat-ing that more than half of the oral dose was excreted into urine in all cohorts.\nPD and antitumor effectsThe endocrine parameters are presented in Table 5. Serum']</t>
         </is>
       </c>
     </row>
@@ -866,11 +861,9 @@
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-The passage mentions interactions between NOTCH3 and these other Notch isoforms:
+The passage mentions interactions between NOTCH3 and the ectodomains of NOTCH1 and NOTCH4, indicating these are different isoforms of the Notch receptor expressed in mammalian cells. Specifically, it states:
 "Importantly, we demonstrate for the first time that the NOTCH3 ectodomain is able to interact with ectodomains of NOTCH1 and NOTCH4, which are also expressed in the vascular wall."
-It also references studies examining expression patterns of different Notch isoforms:
-"Villa N, Walker L, Lindsell CE, Gasson J, Iruela-Arispe ML, et al. (2001) Vascular expression of Notch pathway receptors and ligands is restricted to arterial vessels."
-While not explicitly stated in this excerpt, mammals typically have four Notch receptor isoforms - NOTCH1, NOTCH2, NOTCH3, and NOTCH4. The passage focuses mainly on NOTCH3 but mentions interactions with NOTCH1 and NOTCH4, implying these are distinct isoforms of the receptor.</t>
+So NOTCH1, NOTCH3, and NOTCH4 are explicitly mentioned as different mammalian Notch receptor isoforms. While not directly stated in this excerpt, mammals typically have four Notch receptors (NOTCH1-4), so NOTCH2 is likely also present but not specifically discussed in this context.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -902,22 +895,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following mitochondrial diseases have been attributed to mutations in the POLG gene encoding mitochondrial DNA polymerase gamma:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and autosomal recessive forms of PEO can be caused by POLG mutations. PEO is characterized by weakness of the eye muscles.
-2. Mitochondrial neurogastrointestinal encephalomyopathy (MNGIE)-like syndrome - The paper reports a family with features resembling MNGIE that was found to have POLG mutations rather than the typical thymidine phosphorylase mutations. Features included gastrointestinal dysmotility, peripheral neuropathy, ophthalmoplegia, and cachexia.
-3. Syndromes with multiple mtDNA deletions - POLG mutations can lead to accumulation of multiple deletions in mitochondrial DNA.
-4. Conditions with variable features that may include:
+          <t>Based on the context provided, some key points about mitochondrial diseases associated with POLG mutations include:
+1. Progressive external ophthalmoplegia (PEO) associated with multiple mitochondrial DNA deletions can be caused by recessive mutations in POLG.
+2. The clinical phenotype of recessive PEO patients with POLG mutations is quite heterogeneous, but common features include:
+- PEO 
 - Axonal sensory neuropathy
-- Sensory ataxia  
-- Cardiomyopathy
-- Retinopathy
-- Sensorineural hearing loss
-- Thalamic lesions
-- Muscle dystrophy
-- Facial diplegia
-- Dysarthria
-- Dysphagia
-The paper notes that recessive POLG mutations can cause a heterogeneous spectrum of clinical manifestations involving multiple organ systems. However, it does not provide an exhaustive list of all POLG-related disorders known at the time.</t>
+- Variable associated features like sensory ataxia, cardiomyopathy, retinopathy, hearing loss, thalamic lesions, muscle dystrophy, facial diplegia, dysarthria and dysphagia.
+3. The paper reports a family with features resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE), including severe gastrointestinal symptoms, but caused by novel POLG mutations rather than the typical TP mutations seen in MNGIE. 
+4. This expands the clinical spectrum associated with recessive POLG mutations to include MNGIE-like presentations.
+5. The paper notes that leukoencephalopathy, which is common in MNGIE caused by TP mutations, has not been reported in patients with POLG mutations.
+In summary, the main mitochondrial diseases attributed to POLG mutations based on this context are forms of PEO with variable associated symptoms, as well as MNGIE-like presentations without leukoencephalopathy. The phenotypic spectrum appears to be quite broad.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -956,10 +943,10 @@
 4. miR-200b
 5. miR-200c
 Specifically:
-- miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently reported as up-regulated in at least 4 studies. 
-- miR-100 was consistently reported as down-regulated in 4 studies.
-The review authors validated these 5 miRNAs using qRT-PCR in clinical samples and confirmed their dysregulation in epithelial ovarian cancer tissues compared to controls.
-The authors conclude that these five most consistently differentially expressed miRNAs across multiple profiling studies may provide clues for potential biomarkers in epithelial ovarian cancer, though further validation studies are still needed to confirm their clinical significance.</t>
+- miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently reported as up-regulated in at least 4 studies.
+- miR-100 was consistently reported as down-regulated in 4 studies. 
+The authors validated these 5 miRNAs in clinical samples using qRT-PCR and confirmed their dysregulation in epithelial ovarian cancer tissues compared to controls.
+The review concludes that these five most consistently differentially expressed miRNAs may provide clues for potential biomarkers in epithelial ovarian cancer, though further validation studies are needed to confirm their clinical significance and roles in ovarian cancer progression.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
